--- a/data/trans_camb/P1410-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1410-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3627841023723855</v>
+        <v>-0.3603740265152254</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1939376317739059</v>
+        <v>-0.2868549257328402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3795905792655169</v>
+        <v>-0.1957575893593635</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1136919524947383</v>
+        <v>0.08233593181779561</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1212645699823925</v>
+        <v>-0.1291998655068551</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3715485003074413</v>
+        <v>-0.3743557268496879</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04623870938387018</v>
+        <v>0.02123463684287026</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.044579296500792</v>
+        <v>-0.08476857359884925</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1907655531108969</v>
+        <v>-0.09864784533033198</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.069888631136771</v>
+        <v>1.087648470961993</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.59606903114755</v>
+        <v>1.365170834533158</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.150384550574978</v>
+        <v>5.072504043563131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.271374068149862</v>
+        <v>2.281174457053997</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.97555646864638</v>
+        <v>1.808583604081102</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.440116302399312</v>
+        <v>3.863458159308705</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.338771323401116</v>
+        <v>1.324075815328103</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.184909094875061</v>
+        <v>1.177360394087421</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.795273357969085</v>
+        <v>2.597538166963975</v>
       </c>
     </row>
     <row r="7">
@@ -786,9 +786,11 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.4200107989302487</v>
-      </c>
-      <c r="J8" s="6" t="inlineStr"/>
+        <v>-0.4612424502257609</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7475515634383932</v>
+      </c>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -855,31 +857,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6270787089251039</v>
+        <v>-0.6361305597546502</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.125349937577639</v>
+        <v>-1.023802394519677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5037112999543166</v>
+        <v>-0.511358486104674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8839170701334473</v>
+        <v>-0.8853261831715191</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5832060868412502</v>
+        <v>-0.5754626045001888</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6172173485580729</v>
+        <v>-0.6052040116578068</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5850583039093771</v>
+        <v>-0.5389882301218654</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5202428849259143</v>
+        <v>-0.537881061352709</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.3578893396950971</v>
+        <v>-0.373155574941305</v>
       </c>
     </row>
     <row r="12">
@@ -890,31 +892,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4811594614237059</v>
+        <v>0.508527601008719</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1259522168849277</v>
+        <v>-0.124152265256809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.378669239563301</v>
+        <v>1.257572304068751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4871695465909109</v>
+        <v>0.6123208215607153</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.209156934909438</v>
+        <v>1.215801546466959</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.072477588831119</v>
+        <v>1.015173981237745</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3302663908609718</v>
+        <v>0.4052064533952221</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4357878268785218</v>
+        <v>0.4225405115591233</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8761820598859951</v>
+        <v>0.8767154562461816</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +968,13 @@
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.8686225361786116</v>
+        <v>-0.8612675721832401</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8471191010080868</v>
+        <v>-0.8285902318726971</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7156383155023284</v>
+        <v>-0.7021456070317725</v>
       </c>
     </row>
     <row r="15">
@@ -989,13 +991,13 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.57848975757516</v>
+        <v>3.323185283504757</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.751029563903788</v>
+        <v>2.726974918433441</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.807952277803956</v>
+        <v>5.554382919837048</v>
       </c>
     </row>
     <row r="16">
@@ -1025,7 +1027,7 @@
         <v>-0.2346419141014519</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.5104572273409849</v>
+        <v>-0.5104572273409846</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3763335476084281</v>
@@ -1045,31 +1047,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.005482726750905623</v>
+        <v>0.001653175822576201</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4469727004368489</v>
+        <v>-0.449611885517405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.08125452616988299</v>
+        <v>-0.06798980682077782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.135925527363157</v>
+        <v>-1.018692847203396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.347218780909161</v>
+        <v>-1.428989797089578</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.716713069130028</v>
+        <v>-1.640850845243734</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3245440695222779</v>
+        <v>-0.4334101144947257</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7524205698579064</v>
+        <v>-0.8367354366863904</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6554748523370365</v>
+        <v>-0.635452304125436</v>
       </c>
     </row>
     <row r="18">
@@ -1080,31 +1082,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.637343601017755</v>
+        <v>1.622666347284619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5927131355366352</v>
+        <v>0.6053887972569854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.023895002832951</v>
+        <v>2.026066704028082</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.328494247199909</v>
+        <v>1.327204993867254</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.102028232315177</v>
+        <v>0.8988718135621814</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.463748043652621</v>
+        <v>0.4029824793426264</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.251564894084938</v>
+        <v>1.109825737032728</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5206074995289472</v>
+        <v>0.5485453274976266</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7935023484029361</v>
+        <v>0.7787157129539128</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1132,7 @@
         <v>-0.1784967896252137</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3883150061670498</v>
+        <v>-0.3883150061670497</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4582370018674186</v>
@@ -1149,26 +1151,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-0.5097571022708578</v>
+      </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.6426709930320665</v>
+        <v>-0.5878054803066728</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7171810151789355</v>
+        <v>-0.7295009181552148</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8224063592143189</v>
+        <v>-0.8096060877877983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3230094918478497</v>
+        <v>-0.3848457667493415</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6879015965250753</v>
+        <v>-0.7077628110762887</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5437348432893141</v>
+        <v>-0.5676940002729824</v>
       </c>
     </row>
     <row r="21">
@@ -1182,22 +1186,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.861984290749736</v>
+        <v>2.124027665089801</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.685847814771911</v>
+        <v>1.651247881309586</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7474096101922099</v>
+        <v>0.7485419644256534</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.063109136907411</v>
+        <v>2.205712744156897</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.274548993105076</v>
+        <v>1.041166776798769</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.800931576595313</v>
+        <v>1.833835972926252</v>
       </c>
     </row>
     <row r="22">
@@ -1236,7 +1240,7 @@
         <v>-0.4854744468223041</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.01268409209840421</v>
+        <v>0.01268409209840386</v>
       </c>
     </row>
     <row r="23">
@@ -1247,31 +1251,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.987386429167855</v>
+        <v>-2.844991970448339</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.845720454838199</v>
+        <v>-3.103955468048083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.862304694149066</v>
+        <v>-2.042572470227461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.160616099851739</v>
+        <v>-3.257360112796903</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.793811304377382</v>
+        <v>-1.854350125229853</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.816487250123149</v>
+        <v>-1.990738630084987</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.532666204958669</v>
+        <v>-2.575717704165333</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.857905011799778</v>
+        <v>-1.922658943851032</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.411530932907653</v>
+        <v>-1.225112365597553</v>
       </c>
     </row>
     <row r="24">
@@ -1282,31 +1286,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.083531217960339</v>
+        <v>1.028351146168267</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7605193709390924</v>
+        <v>0.670815288903018</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.0726461868894</v>
+        <v>2.160448421511749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.0861273959085158</v>
+        <v>-0.1066642088081054</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.898678500873657</v>
+        <v>1.687087141541631</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.313696733347423</v>
+        <v>1.237896710327189</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02735755748791384</v>
+        <v>0.06081222375736915</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7628624218205285</v>
+        <v>0.7082855162583062</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.255376620764916</v>
+        <v>1.398608496853788</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1345,7 @@
         <v>-0.182248542064221</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.004761645659155769</v>
+        <v>0.004761645659155639</v>
       </c>
     </row>
     <row r="26">
@@ -1352,31 +1356,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7385205842443089</v>
+        <v>-0.7099363114966567</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7145501192016037</v>
+        <v>-0.7135771498780901</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4818430509715304</v>
+        <v>-0.4951796013820996</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8889258276256321</v>
+        <v>-0.9061510390014057</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5521352233541144</v>
+        <v>-0.5672955555502319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5125432610853065</v>
+        <v>-0.5207035778341127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7119423661366733</v>
+        <v>-0.6999963818060968</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5209431740640729</v>
+        <v>-0.5478858031640594</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3887472150813231</v>
+        <v>-0.3541653868940913</v>
       </c>
     </row>
     <row r="27">
@@ -1387,31 +1391,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.655122162724301</v>
+        <v>0.6039931615683829</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4707981415501546</v>
+        <v>0.4233240499630459</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.117693686845094</v>
+        <v>1.169793115570027</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07122246765185328</v>
+        <v>0.1587683565642279</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.448398960084109</v>
+        <v>1.160878570487216</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.002098918029924</v>
+        <v>0.9365737352756089</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06000782246993953</v>
+        <v>0.0487553756791722</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4187786398863108</v>
+        <v>0.3628608905183074</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6552778748562045</v>
+        <v>0.7421060631933476</v>
       </c>
     </row>
     <row r="28">
@@ -1432,7 +1436,7 @@
         <v>-4.852109573001055</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.217973511079785</v>
+        <v>-2.217973511079786</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.8461781970639306</v>
@@ -1461,31 +1465,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.244139857089053</v>
+        <v>-9.151065166998599</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.546968561400591</v>
+        <v>-9.027508611611577</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.201397094432597</v>
+        <v>-6.148324720165094</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.282190110236221</v>
+        <v>-2.390381829633589</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.503092765547144</v>
+        <v>-4.515218732750879</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.472110321969708</v>
+        <v>-4.275411903219315</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.100594409847407</v>
+        <v>-4.471632470181403</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.786144080656759</v>
+        <v>-5.605847060278008</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.087222362546766</v>
+        <v>-4.215479677916374</v>
       </c>
     </row>
     <row r="30">
@@ -1496,31 +1500,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.047917063809396</v>
+        <v>-1.962963616802142</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6765224551728756</v>
+        <v>-1.093245024894521</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.301820748099654</v>
+        <v>1.7634495823704</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.933092496785918</v>
+        <v>3.772330044273648</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.251028991758699</v>
+        <v>0.6436271245398613</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4259494350889402</v>
+        <v>0.5637109187042403</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.02747483315707488</v>
+        <v>0.2878184661145171</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.151848165895455</v>
+        <v>-0.6175444620819204</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3229367698976663</v>
+        <v>0.2215815213688205</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1541,7 @@
         <v>-0.4472971297954583</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2044663605679309</v>
+        <v>-0.204466360567931</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1704275351450943</v>
@@ -1566,31 +1570,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7082605942433904</v>
+        <v>-0.7129740223030547</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6724515698707902</v>
+        <v>-0.6552953488250912</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4550917870774365</v>
+        <v>-0.4466337981899973</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3569064572257691</v>
+        <v>-0.3706096208377831</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.668291815193145</v>
+        <v>-0.6630892091211381</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6351221913240001</v>
+        <v>-0.6230288822331435</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5386769330318546</v>
+        <v>-0.4978739561191691</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6151471871740251</v>
+        <v>-0.5949221777070798</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4301093957984887</v>
+        <v>-0.4468369316633505</v>
       </c>
     </row>
     <row r="33">
@@ -1601,31 +1605,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2107351741953878</v>
+        <v>-0.2115867395766725</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06776618263432597</v>
+        <v>-0.07920873645574136</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1647864277813248</v>
+        <v>0.203129367154555</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.240132032257851</v>
+        <v>1.064638037594968</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4289629933285507</v>
+        <v>0.2303034690213576</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1395606012687303</v>
+        <v>0.193146340198401</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02991946517794624</v>
+        <v>0.04864270384840801</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1375656078061783</v>
+        <v>-0.07993855637261274</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.05677645273942155</v>
+        <v>0.03334784644185523</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1650,7 @@
         <v>-1.910471794026662</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-4.919113186207595</v>
+        <v>-4.919113186207596</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.1961708634598755</v>
@@ -1655,7 +1659,7 @@
         <v>3.14062830639311</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.840521404010347</v>
+        <v>-1.840521404010348</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.954928797667746</v>
@@ -1664,7 +1668,7 @@
         <v>0.8216710619425125</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.201880867677412</v>
+        <v>-3.201880867677413</v>
       </c>
     </row>
     <row r="35">
@@ -1675,31 +1679,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.50848655154353</v>
+        <v>-9.61297470316522</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.310179822835164</v>
+        <v>-7.623791810097496</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.971166808900096</v>
+        <v>-9.548435882457719</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.8518966940805</v>
+        <v>-4.480308865936741</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.522619998099862</v>
+        <v>-1.025751547743551</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.957581331191388</v>
+        <v>-5.746890378570821</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.065051523887564</v>
+        <v>-5.221120968985512</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.834666202630402</v>
+        <v>-2.680136254508895</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.922546381795643</v>
+        <v>-6.151217941993082</v>
       </c>
     </row>
     <row r="36">
@@ -1710,31 +1714,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.9649149668651177</v>
+        <v>1.098320189558049</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.092757303066379</v>
+        <v>3.410366777623334</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.5777124768815675</v>
+        <v>-0.1434324070694098</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.609339956122853</v>
+        <v>4.006189489152925</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.713261782368633</v>
+        <v>7.615269104684868</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.596675061189339</v>
+        <v>1.344963141107883</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.28144552457837</v>
+        <v>0.8375681519499825</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.059826470211504</v>
+        <v>3.89986120334162</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.4091470271045217</v>
+        <v>-0.1924809987902905</v>
       </c>
     </row>
     <row r="37">
@@ -1760,7 +1764,7 @@
         <v>0.3704434556194475</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2170932191037218</v>
+        <v>-0.2170932191037219</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1756206202895035</v>
@@ -1769,7 +1773,7 @@
         <v>0.07381464825953435</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2876402990970571</v>
+        <v>-0.2876402990970572</v>
       </c>
     </row>
     <row r="38">
@@ -1780,31 +1784,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5413592010487858</v>
+        <v>-0.5668055624181095</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4206441266753535</v>
+        <v>-0.4309592591125857</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5561860754303888</v>
+        <v>-0.5429203175100615</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.37745619409141</v>
+        <v>-0.4247784026156352</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1538776923728248</v>
+        <v>-0.1089887498110967</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4667024017190133</v>
+        <v>-0.4984339318152398</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4122959342350955</v>
+        <v>-0.4117780330099253</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2185647416039471</v>
+        <v>-0.2110295059004146</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4560041922351485</v>
+        <v>-0.4679571083146497</v>
       </c>
     </row>
     <row r="39">
@@ -1815,31 +1819,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1062738767911339</v>
+        <v>0.09370104539491302</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2932589081341202</v>
+        <v>0.2991834736686408</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.04726647157224002</v>
+        <v>-0.01344675976749733</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7639295390399863</v>
+        <v>0.5987973259807585</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.158007544058206</v>
+        <v>1.138119308450618</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2938662229297211</v>
+        <v>0.2259166593967268</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1331815281965431</v>
+        <v>0.08627379521784102</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4279268609360749</v>
+        <v>0.4070041546124355</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.0434230396144917</v>
+        <v>-0.02954609554496951</v>
       </c>
     </row>
     <row r="40">
@@ -1860,7 +1864,7 @@
         <v>-5.721010805300028</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.300581300637115</v>
+        <v>-0.3005813006371094</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.695202438057021</v>
@@ -1869,7 +1873,7 @@
         <v>1.53957951452621</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.918539700764747</v>
+        <v>2.918539700764744</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.686956985997673</v>
@@ -1878,7 +1882,7 @@
         <v>-1.26936046357293</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.716149256428753</v>
+        <v>1.716149256428748</v>
       </c>
     </row>
     <row r="41">
@@ -1889,31 +1893,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.734545972527042</v>
+        <v>-7.650751012946802</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.78771163619092</v>
+        <v>-13.25921435567888</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.750387218331817</v>
+        <v>-7.178171575072673</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.16031355491999</v>
+        <v>-3.128313171461506</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.556792299962111</v>
+        <v>-4.516320575694742</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.322445562555741</v>
+        <v>-2.800625625885664</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.81913745003123</v>
+        <v>-2.735378436078697</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.644004923785427</v>
+        <v>-5.929585368282484</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.020142302555241</v>
+        <v>-2.23891930673459</v>
       </c>
     </row>
     <row r="42">
@@ -1924,31 +1928,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.396607003028471</v>
+        <v>7.740546223134656</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.201431128181902</v>
+        <v>0.7261211434154023</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.38905566489615</v>
+        <v>6.621744509403276</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.588201203839621</v>
+        <v>8.234635330469549</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.58641038728206</v>
+        <v>7.422245955040291</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.231132823206991</v>
+        <v>7.483143210194538</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.30506352014127</v>
+        <v>6.65046213407564</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.535604664654904</v>
+        <v>3.601054029739116</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.999296653153883</v>
+        <v>5.788318917838032</v>
       </c>
     </row>
     <row r="43">
@@ -1965,7 +1969,7 @@
         <v>-0.2634673344043678</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.01384254579230871</v>
+        <v>-0.01384254579230845</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.17111671495173</v>
@@ -1974,7 +1978,7 @@
         <v>0.09774693923274444</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1852962578985701</v>
+        <v>0.1852962578985699</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.09344774550414682</v>
@@ -1983,7 +1987,7 @@
         <v>-0.07031529229112936</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.09506482992335537</v>
+        <v>0.09506482992335506</v>
       </c>
     </row>
     <row r="44">
@@ -1994,31 +1998,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3155860382734563</v>
+        <v>-0.3094822678058006</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4825475544216247</v>
+        <v>-0.4978153846211019</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.265545595815113</v>
+        <v>-0.2638682705704686</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1662606582322227</v>
+        <v>-0.1667789204441038</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2562556397244664</v>
+        <v>-0.2414327051084531</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.121985724033255</v>
+        <v>-0.1418047858107122</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1426953619004992</v>
+        <v>-0.1369539750576195</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2798005799804574</v>
+        <v>-0.2837664387115904</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.09664330674911632</v>
+        <v>-0.1103814186230667</v>
       </c>
     </row>
     <row r="45">
@@ -2029,31 +2033,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4057967489708264</v>
+        <v>0.4472926070513585</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.08980301817734267</v>
+        <v>0.05724739775218893</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3582363765532721</v>
+        <v>0.4123028847882423</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.586292649501705</v>
+        <v>0.6237360244052796</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5602023214640387</v>
+        <v>0.5806977646585039</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5725647399975203</v>
+        <v>0.6109604809958457</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.394082524824385</v>
+        <v>0.4241150742877514</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2347212567537388</v>
+        <v>0.2370790265857832</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3975832373243444</v>
+        <v>0.3764659171971453</v>
       </c>
     </row>
     <row r="46">
@@ -2074,7 +2078,7 @@
         <v>-0.8249823431779296</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.8275908077304988</v>
+        <v>0.8275908077304973</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.4369038254308122</v>
@@ -2083,7 +2087,7 @@
         <v>0.7512283139158992</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.6215837438880261</v>
+        <v>0.6215837438880254</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.133402354874914</v>
@@ -2092,7 +2096,7 @@
         <v>-0.02241132809695928</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.7166790029804894</v>
+        <v>0.7166790029804901</v>
       </c>
     </row>
     <row r="47">
@@ -2103,31 +2107,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.720000492887181</v>
+        <v>-1.569975449967316</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.784560780969936</v>
+        <v>-1.771182696620294</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.1860562073155917</v>
+        <v>-0.133088211756443</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.5123388390563407</v>
+        <v>-0.4596240638738037</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.2459980056903105</v>
+        <v>-0.2079614422764181</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.265486090686179</v>
+        <v>-0.2220768019444338</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.7956589631636901</v>
+        <v>-0.7918700787344057</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.6755630185499603</v>
+        <v>-0.7273282762795342</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.09003321795107759</v>
+        <v>0.0824807622156085</v>
       </c>
     </row>
     <row r="48">
@@ -2138,31 +2142,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.2046120023839479</v>
+        <v>0.3605992977894218</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.1685699865389141</v>
+        <v>0.1476568836851292</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.860351454500805</v>
+        <v>1.820738405447056</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.417741654908044</v>
+        <v>1.353939361044104</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.706078077938144</v>
+        <v>1.70038667377102</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.502695872758375</v>
+        <v>1.37955955151391</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.5947328163436981</v>
+        <v>0.59593379737387</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.6921282109869219</v>
+        <v>0.6857938029875159</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.402690491079747</v>
+        <v>1.36451110173747</v>
       </c>
     </row>
     <row r="49">
@@ -2179,7 +2183,7 @@
         <v>-0.1800126667960001</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.180581838565837</v>
+        <v>0.1805818385658367</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.116525490711849</v>
@@ -2188,7 +2192,7 @@
         <v>0.2003581631022991</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1657809947158051</v>
+        <v>0.1657809947158049</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.03206986036527403</v>
@@ -2197,7 +2201,7 @@
         <v>-0.005387672229202768</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.1722892791049984</v>
+        <v>0.1722892791049986</v>
       </c>
     </row>
     <row r="50">
@@ -2208,31 +2212,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.336734071663494</v>
+        <v>-0.3129203091325316</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3557175148745395</v>
+        <v>-0.3475472475430363</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.04167561344375342</v>
+        <v>-0.02544720694444474</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1209070244414446</v>
+        <v>-0.1127403052502421</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.05621460280772723</v>
+        <v>-0.05066347813877754</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.07040450611974122</v>
+        <v>-0.05149068814732508</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1792392189285115</v>
+        <v>-0.1734876035601208</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1531931531192734</v>
+        <v>-0.1556183825312712</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.01948136965177125</v>
+        <v>0.02043402635699813</v>
       </c>
     </row>
     <row r="51">
@@ -2243,31 +2247,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.05245337555995565</v>
+        <v>0.09600033108870654</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.04350192379352382</v>
+        <v>0.03634960940387587</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4618257580794732</v>
+        <v>0.4548489574075457</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4338926445550366</v>
+        <v>0.4172346971740183</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5143512787693323</v>
+        <v>0.5116118750249604</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4568973606987478</v>
+        <v>0.4277744095219674</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1583913757663026</v>
+        <v>0.1552187367729201</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.183277682631705</v>
+        <v>0.1757425316259294</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3661839865926228</v>
+        <v>0.3637524712862759</v>
       </c>
     </row>
     <row r="52">
